--- a/egov/egov_functional_test/src/test/resources/dataFiles/ProductionDumpTestUsersData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/dataFiles/ProductionDumpTestUsersData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="196">
   <si>
     <t xml:space="preserve">dataRow</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t xml:space="preserve">Comm-WCMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Tax Approver</t>
   </si>
   <si>
     <t xml:space="preserve">jurisdictionType</t>
@@ -640,18 +643,17 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF297BDE"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -700,7 +702,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -717,15 +719,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -739,66 +749,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF297BDE"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -815,18 +765,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,125 +1905,125 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="96.3826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="94.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2082,18 +2032,18 @@
       <c r="D6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2102,18 +2052,18 @@
       <c r="D7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2122,18 +2072,18 @@
       <c r="D8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2142,138 +2092,138 @@
       <c r="D9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -2282,138 +2232,138 @@
       <c r="D16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="B21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2422,91 +2372,91 @@
       <c r="D23" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="B26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>182</v>
+      <c r="F27" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2533,10 +2483,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,65 +2494,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/egov/egov_functional_test/src/test/resources/dataFiles/ProductionDumpTestUsersData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/dataFiles/ProductionDumpTestUsersData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="employeeDetails" sheetId="1" state="visible" r:id="rId2"/>
@@ -498,7 +498,25 @@
     <t xml:space="preserve">JA-Sewarage</t>
   </si>
   <si>
-    <t xml:space="preserve">ULB Operator,Sewerage Tax Creator﻿</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ULB Operator,Sewerage Tax Creator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">﻿</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ENGINEERING</t>
@@ -510,7 +528,35 @@
     <t xml:space="preserve">AE-Sewarage</t>
   </si>
   <si>
-    <t xml:space="preserve">Sewerage Tax Approver,﻿Sewerage Connection Executor,Sewerage Tax Report Viewer,STMS_VIEW_ACCESS_ROLE</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sewerage Tax Approver,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sewerage Connection Executor,Sewerage Tax Report Viewer,STMS_VIEW_ACCESS_ROLE</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Deputy Executive Engineer</t>
@@ -519,7 +565,25 @@
     <t xml:space="preserve">DEE-Sewarage</t>
   </si>
   <si>
-    <t xml:space="preserve">Sewerage Tax Approver,Sewerage Tax Administrator,Sewerage Tax Report Viewer﻿</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sewerage Tax Approver,Sewerage Tax Administrator,Sewerage Tax Report Viewer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">﻿</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Executive Engineer</t>
@@ -537,7 +601,35 @@
     <t xml:space="preserve">JA-TL</t>
   </si>
   <si>
-    <t xml:space="preserve">ULB Operator,TLCreator,TLApprover,TL VIEW ACCESS,TLAdmin﻿,Collection Operator</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ULB Operator,TLCreator,TLApprover,TL VIEW ACCESS,TLAdmin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,Collection Operator</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TradeSanityInspector</t>
@@ -558,7 +650,25 @@
     <t xml:space="preserve">JA-WCMS</t>
   </si>
   <si>
-    <t xml:space="preserve">Water Tax Report Viewer,ULB Operator,VIEW_ACCESS_ROLE,WC_VIEW_ACCESS_ROLE﻿</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Water Tax Report Viewer,ULB Operator,VIEW_ACCESS_ROLE,WC_VIEW_ACCESS_ROLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">﻿</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">AE-WCMS</t>
@@ -570,7 +680,25 @@
     <t xml:space="preserve">DEE-WCMS</t>
   </si>
   <si>
-    <t xml:space="preserve">Water Tax Approver﻿</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Water Tax Approver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">﻿</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Comm-WCMS</t>
@@ -652,7 +780,7 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="FreeSans"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -702,7 +830,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -735,10 +863,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -759,24 +883,24 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,19 +2028,19 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="94.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="93.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,7 +2579,7 @@
       <c r="E27" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="4" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2483,10 +2607,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
